--- a/LogBook.xlsx
+++ b/LogBook.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>FName</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,37 +451,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Freq [GHz]</t>
+          <t>Freq</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Power [dBm]</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Field:        From/To/Points/Time [mT]</t>
+          <t>Field</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Mod.Freq [Hz]</t>
+          <t>ModFreq</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Mod. Amp. [V]</t>
+          <t>ModAmp</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>TC [ms]</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Calibration File</t>
+          <t>Calib</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -491,161 +491,161 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Short/CPW</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>VNA/Lock-In</t>
+          <t>VNA</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Angle- / Freq - Steps</t>
+          <t>Steps</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>/</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>/</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>/</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>/</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>/</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>/</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>/</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>/</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>/</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>/</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>/</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>/</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>/</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>/</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>/</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>/</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>/</t>
         </is>
       </c>
     </row>

--- a/LogBook.xlsx
+++ b/LogBook.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Freq</t>
+          <t>MWFreq</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>MWPow</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Calib</t>
+          <t>CalibN</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -508,59 +508,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>TEsting Excel2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>0/150/0.4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>3000.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+          <t>calibMagnet.dat</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>/</t>
@@ -568,71 +564,67 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>LockIn</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Excel 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>&lt;PyQt5.QtWidgets.QLineEdit object at 0x000001237F4248B0&gt;/&lt;PyQt5.QtWidgets.QLineEdit object at 0x000001237F424940&gt;/0.4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>3000.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+          <t>calibMagnet.dat</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>/</t>
@@ -640,10 +632,226 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>LockIn</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>/</t>
         </is>

--- a/LogBook.xlsx
+++ b/LogBook.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,12 +508,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TEsting Excel2</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>FieldSweep_27-10-22_16-42-35.dat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0/150/0.4</t>
+          <t>150/250/0.4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -576,19 +576,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Excel 1</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>FieldSweep_27-10-22_16-36-43.dat</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>None</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>15.0</t>
@@ -601,12 +601,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;PyQt5.QtWidgets.QLineEdit object at 0x000001237F4248B0&gt;/&lt;PyQt5.QtWidgets.QLineEdit object at 0x000001237F424940&gt;/0.4</t>
+          <t>150/250/0.4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3000.0</t>
+          <t>468.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -624,7 +624,11 @@
           <t>calibMagnet.dat</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Repositioned Sample</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>/</t>
@@ -644,59 +648,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>FieldSweep_27-10-22_15-34-48.dat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>150/250/0.4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>468.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+          <t>calibMagnet.dat</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>/</t>
@@ -704,154 +704,574 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>LockIn</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>100nm Py 4x3mm Insitu</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>FieldSweep_27-10-22_15-31-14.dat</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>100nm Py 4x3mm Insitu</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>150/250/0.4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>468.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>calibMagnet.dat</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Changed Mod Freq</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>In-Situ short</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>LockIn</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>100nm Py 4x3mm Insitu</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>FieldSweep_27-10-22_14-52-21.dat</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>100nm Py 4x3mm Insitu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>150/250/0.4</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>3000.0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+          <t>calibMagnet.dat</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>In-Situ short</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>LockIn</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100nm Py 4x3mm Insitu</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FieldSweep_27-10-22_14-30-06.dat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>100nm Py 4x3mm Insitu</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>150/250/0.4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>calibMagnet.dat</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Forgot to plug ion BNC cables</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>In-Situ Short</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>LockIn</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TEsting Excel2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0/150/0.4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>calibMagnet.dat</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>LockIn</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Excel 1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>&lt;PyQt5.QtWidgets.QLineEdit object at 0x000001237F4248B0&gt;/&lt;PyQt5.QtWidgets.QLineEdit object at 0x000001237F424940&gt;/0.4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>calibMagnet.dat</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>LockIn</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>/</t>
         </is>
